--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cx3cl1</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cx3cl1</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H2">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I2">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J2">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>49.44286598267401</v>
+        <v>66.53753974580222</v>
       </c>
       <c r="R2">
-        <v>444.9857938440661</v>
+        <v>598.8378577122199</v>
       </c>
       <c r="S2">
-        <v>0.1597496341966519</v>
+        <v>0.1942194886862698</v>
       </c>
       <c r="T2">
-        <v>0.1681259231990186</v>
+        <v>0.1992013290618225</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H3">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I3">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J3">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>31.96784242031867</v>
+        <v>30.55877764332134</v>
       </c>
       <c r="R3">
-        <v>287.710581782868</v>
+        <v>275.028998789892</v>
       </c>
       <c r="S3">
-        <v>0.1032879270083512</v>
+        <v>0.08919942323442646</v>
       </c>
       <c r="T3">
-        <v>0.1087037110971728</v>
+        <v>0.09148743918561197</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H4">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I4">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J4">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>1.880538378962778</v>
+        <v>2.473265153022556</v>
       </c>
       <c r="R4">
-        <v>16.924845410665</v>
+        <v>22.259386377203</v>
       </c>
       <c r="S4">
-        <v>0.006076009393091037</v>
+        <v>0.007219327544131429</v>
       </c>
       <c r="T4">
-        <v>0.006394597982752369</v>
+        <v>0.00740450740268718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H5">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I5">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J5">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>7.846807396881667</v>
+        <v>4.130009403425167</v>
       </c>
       <c r="R5">
-        <v>47.08084438129001</v>
+        <v>24.780056420551</v>
       </c>
       <c r="S5">
-        <v>0.02535299251670999</v>
+        <v>0.01205527462643113</v>
       </c>
       <c r="T5">
-        <v>0.01778823175053426</v>
+        <v>0.008242999519200203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.36956766666667</v>
+        <v>9.912502333333334</v>
       </c>
       <c r="H6">
-        <v>31.108703</v>
+        <v>29.737507</v>
       </c>
       <c r="I6">
-        <v>0.3064094944964822</v>
+        <v>0.306800202315277</v>
       </c>
       <c r="J6">
-        <v>0.3135816093320294</v>
+        <v>0.3105483022825659</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>3.696363742640444</v>
+        <v>1.406907889509556</v>
       </c>
       <c r="R6">
-        <v>33.267273683764</v>
+        <v>12.662171005586</v>
       </c>
       <c r="S6">
-        <v>0.01194293138167803</v>
+        <v>0.004106688224018141</v>
       </c>
       <c r="T6">
-        <v>0.01256914530255138</v>
+        <v>0.00421202711324397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I7">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J7">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>99.85651183174799</v>
+        <v>140.5778316885289</v>
       </c>
       <c r="R7">
-        <v>898.7086064857319</v>
+        <v>1265.20048519676</v>
       </c>
       <c r="S7">
-        <v>0.3226358529229551</v>
+        <v>0.410339106247058</v>
       </c>
       <c r="T7">
-        <v>0.3395528941430995</v>
+        <v>0.4208645377626971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I8">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J8">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>64.56335350783733</v>
@@ -948,10 +948,10 @@
         <v>581.070181570536</v>
       </c>
       <c r="S8">
-        <v>0.2086038481062245</v>
+        <v>0.1884569455688983</v>
       </c>
       <c r="T8">
-        <v>0.2195417518299511</v>
+        <v>0.1932909734352009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I9">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J9">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>3.797999957258889</v>
+        <v>5.225414912108222</v>
       </c>
       <c r="R9">
-        <v>34.18199961532999</v>
+        <v>47.02873420897399</v>
       </c>
       <c r="S9">
-        <v>0.01227131744473753</v>
+        <v>0.01525270420698559</v>
       </c>
       <c r="T9">
-        <v>0.01291474991251002</v>
+        <v>0.01564394474710187</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I10">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J10">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>15.84768196776333</v>
+        <v>8.725717377059667</v>
       </c>
       <c r="R10">
-        <v>95.08609180658</v>
+        <v>52.354304262358</v>
       </c>
       <c r="S10">
-        <v>0.05120377524438462</v>
+        <v>0.02546989825394537</v>
       </c>
       <c r="T10">
-        <v>0.0359257243478877</v>
+        <v>0.01741547708926008</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>62.82820599999999</v>
       </c>
       <c r="I11">
-        <v>0.6188351484978608</v>
+        <v>0.648195099606228</v>
       </c>
       <c r="J11">
-        <v>0.6333201981749051</v>
+        <v>0.6561139341222959</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>7.465303284214222</v>
+        <v>2.972458273154222</v>
       </c>
       <c r="R11">
-        <v>67.18772955792799</v>
+        <v>26.752124458388</v>
       </c>
       <c r="S11">
-        <v>0.02412035477955901</v>
+        <v>0.008676445329340685</v>
       </c>
       <c r="T11">
-        <v>0.02538507794145678</v>
+        <v>0.008899001088035974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H12">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I12">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J12">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>0.990850279224</v>
+        <v>7.852615951973333</v>
       </c>
       <c r="R12">
-        <v>8.917652513016</v>
+        <v>47.11569571184</v>
       </c>
       <c r="S12">
-        <v>0.003201431925591701</v>
+        <v>0.02292136229966522</v>
       </c>
       <c r="T12">
-        <v>0.003369295339896292</v>
+        <v>0.01567287218835333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H13">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I13">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J13">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>0.6406454188853333</v>
+        <v>3.606480577904001</v>
       </c>
       <c r="R13">
-        <v>5.765808769968</v>
+        <v>21.63888346742401</v>
       </c>
       <c r="S13">
-        <v>0.002069921904457487</v>
+        <v>0.01052712223014931</v>
       </c>
       <c r="T13">
-        <v>0.00217845588746944</v>
+        <v>0.007198099269462402</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H14">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I14">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J14">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.03768656894888889</v>
+        <v>0.2918893825693333</v>
       </c>
       <c r="R14">
-        <v>0.33917912054</v>
+        <v>1.751336295416</v>
       </c>
       <c r="S14">
-        <v>0.0001217651016796155</v>
+        <v>0.0008520093597110117</v>
       </c>
       <c r="T14">
-        <v>0.0001281497152482167</v>
+        <v>0.0005825759229950515</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H15">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I15">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J15">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>0.1572524396733333</v>
+        <v>0.4874147413180001</v>
       </c>
       <c r="R15">
-        <v>0.94351463804</v>
+        <v>1.949658965272</v>
       </c>
       <c r="S15">
-        <v>0.0005080817872319355</v>
+        <v>0.001422737332918968</v>
       </c>
       <c r="T15">
-        <v>0.0003564816490025983</v>
+        <v>0.0006485472688437128</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,55 +1399,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2078093333333333</v>
+        <v>1.169852</v>
       </c>
       <c r="H16">
-        <v>0.623428</v>
+        <v>2.339704</v>
       </c>
       <c r="I16">
-        <v>0.006140540746264892</v>
+        <v>0.03620789364881174</v>
       </c>
       <c r="J16">
-        <v>0.006284272138978229</v>
+        <v>0.0244334908452053</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.07407626911822221</v>
+        <v>0.1660402139653334</v>
       </c>
       <c r="R16">
-        <v>0.666686422064</v>
+        <v>0.9962412837920002</v>
       </c>
       <c r="S16">
-        <v>0.0002393400273041524</v>
+        <v>0.0004846624263672208</v>
       </c>
       <c r="T16">
-        <v>0.0002518895473616821</v>
+        <v>0.0003313961955508028</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H17">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I17">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J17">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>11.071827817587</v>
+        <v>1.907814010417778</v>
       </c>
       <c r="R17">
-        <v>66.430966905522</v>
+        <v>17.17032609376</v>
       </c>
       <c r="S17">
-        <v>0.03577301615904794</v>
+        <v>0.005568806166074382</v>
       </c>
       <c r="T17">
-        <v>0.02509915551126145</v>
+        <v>0.005711649212307451</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H18">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I18">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J18">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>7.158615099326001</v>
+        <v>0.8762040849706668</v>
       </c>
       <c r="R18">
-        <v>42.951690595956</v>
+        <v>7.885836764736</v>
       </c>
       <c r="S18">
-        <v>0.02312944690286964</v>
+        <v>0.002557592451087885</v>
       </c>
       <c r="T18">
-        <v>0.01622814196386285</v>
+        <v>0.002623196152463189</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H19">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I19">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J19">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>0.4211122620508333</v>
+        <v>0.07091530478044444</v>
       </c>
       <c r="R19">
-        <v>2.526673572305</v>
+        <v>0.6382377430239999</v>
       </c>
       <c r="S19">
-        <v>0.001360611454884497</v>
+        <v>0.0002069979486333178</v>
       </c>
       <c r="T19">
-        <v>0.0009546357048764584</v>
+        <v>0.0002123075637761309</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.3220755</v>
+        <v>0.2842186666666667</v>
       </c>
       <c r="H20">
-        <v>4.644151</v>
+        <v>0.852656</v>
       </c>
       <c r="I20">
-        <v>0.06861481625939206</v>
+        <v>0.00879680442968319</v>
       </c>
       <c r="J20">
-        <v>0.04681392035408721</v>
+        <v>0.008904272749933054</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>1.7571493619825</v>
+        <v>0.1184187127013333</v>
       </c>
       <c r="R20">
-        <v>7.02859744793</v>
+        <v>0.7105122762080001</v>
       </c>
       <c r="S20">
-        <v>0.005677340142538467</v>
+        <v>0.0003456578334516832</v>
       </c>
       <c r="T20">
-        <v>0.002655566651958311</v>
+        <v>0.0002363494356821225</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.2842186666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.852656</v>
+      </c>
+      <c r="I21">
+        <v>0.00879680442968319</v>
+      </c>
+      <c r="J21">
+        <v>0.008904272749933054</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.3220755</v>
-      </c>
-      <c r="H21">
-        <v>4.644151</v>
-      </c>
-      <c r="I21">
-        <v>0.06861481625939206</v>
-      </c>
-      <c r="J21">
-        <v>0.04681392035408721</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>0.8277332249313333</v>
+        <v>0.04033991327644445</v>
       </c>
       <c r="R21">
-        <v>4.966399349588</v>
+        <v>0.363059219488</v>
       </c>
       <c r="S21">
-        <v>0.002674401600051506</v>
+        <v>0.0001177500304359209</v>
       </c>
       <c r="T21">
-        <v>0.001876420522128142</v>
+        <v>0.0001207703857041597</v>
       </c>
     </row>
   </sheetData>
